--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_31_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_31_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995223974165177</v>
+        <v>0.9995325984369891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996052592832643</v>
+        <v>0.9996249853680091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9989433168472119</v>
+        <v>0.9998146514672257</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9991723429971796</v>
+        <v>0.999849932275527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9992316591712079</v>
+        <v>0.9998480985067963</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000445821047350194</v>
+        <v>0.0004362988425132543</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003684731319579391</v>
+        <v>0.000350059697723632</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001018897267283163</v>
+        <v>0.0002867335413381552</v>
       </c>
       <c r="J2" t="n">
-        <v>8.984129541038522e-05</v>
+        <v>8.494836363939805e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0005543665714262495</v>
+        <v>0.00018584346970061</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002039520970655703</v>
+        <v>0.002222118565245835</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02111447483008266</v>
+        <v>0.02088776777238904</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000458498480143</v>
+        <v>1.00044870550049</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02201336173658769</v>
+        <v>0.02177700329009975</v>
       </c>
       <c r="P2" t="n">
-        <v>113.4311858511746</v>
+        <v>113.4743662615978</v>
       </c>
       <c r="Q2" t="n">
-        <v>173.1561012697164</v>
+        <v>173.1992816801396</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995138851693892</v>
+        <v>0.9995221827194511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9996049836021917</v>
+        <v>0.9996241483430232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9989281132396844</v>
+        <v>0.99980891301922</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9991634775786328</v>
+        <v>0.9998428046583172</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9992208300126687</v>
+        <v>0.9998428236441996</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004537668564002224</v>
+        <v>0.0004460214576377718</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003687304681381071</v>
+        <v>0.0003508410238069414</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001033557209690434</v>
+        <v>0.000295610900623542</v>
       </c>
       <c r="J3" t="n">
-        <v>9.080362725061982e-05</v>
+        <v>8.898307144047245e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005621799314168948</v>
+        <v>0.0001922969860320072</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002059115223881599</v>
+        <v>0.00224853504248335</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02130180406445009</v>
+        <v>0.02111922010013087</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000466670237386</v>
+        <v>1.000458704589327</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02220866596428712</v>
+        <v>0.02201830902260592</v>
       </c>
       <c r="P3" t="n">
-        <v>113.3958540479676</v>
+        <v>113.4302869916121</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.1207694665095</v>
+        <v>173.155202410154</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995051954329052</v>
+        <v>0.9995115315180826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996046176940997</v>
+        <v>0.9996231222707351</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9989126336146312</v>
+        <v>0.9998029925109585</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9991543493818921</v>
+        <v>0.9998353386499382</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9992098023631305</v>
+        <v>0.9998373541027294</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004618783439727206</v>
+        <v>0.0004559638865816681</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003690720272805444</v>
+        <v>0.0003517988172483768</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001048483299525198</v>
+        <v>0.0003047699064971276</v>
       </c>
       <c r="J4" t="n">
-        <v>9.179448338685559e-05</v>
+        <v>9.320933126373226e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005701365049013425</v>
+        <v>0.0001989886817031047</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002078942468668347</v>
+        <v>0.002275285133020667</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02149135509856744</v>
+        <v>0.02135331090443981</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000475012384411</v>
+        <v>1.000468929742641</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02240628657835158</v>
+        <v>0.02226236555708906</v>
       </c>
       <c r="P4" t="n">
-        <v>113.3604180525859</v>
+        <v>113.3861938953578</v>
       </c>
       <c r="Q4" t="n">
-        <v>173.0853334711277</v>
+        <v>173.1111093138996</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994963334001307</v>
+        <v>0.9995006377932174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996041622497999</v>
+        <v>0.9996219316808111</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9988968549443576</v>
+        <v>0.9997968953495884</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999145055983909</v>
+        <v>0.9998275818201137</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9991985533452253</v>
+        <v>0.9998317022722466</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0004701506625694898</v>
+        <v>0.0004661327005639593</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0003694971645427703</v>
+        <v>0.0003529101806815433</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001063697741035548</v>
+        <v>0.0003142021941208585</v>
       </c>
       <c r="J5" t="n">
-        <v>9.280327194384685e-05</v>
+        <v>9.760021546580746e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0005782527981586075</v>
+        <v>0.0002059033983719435</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002098967969067458</v>
+        <v>0.00230233428954796</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02168295788331218</v>
+        <v>0.02159010654359907</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000483519935875</v>
+        <v>1.000479387718511</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02260604629031535</v>
+        <v>0.02250924207684188</v>
       </c>
       <c r="P5" t="n">
-        <v>113.3249147119393</v>
+        <v>113.3420803984356</v>
       </c>
       <c r="Q5" t="n">
-        <v>173.0498301304811</v>
+        <v>173.0669958169775</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994873015906646</v>
+        <v>0.9994895047414676</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996036119019946</v>
+        <v>0.9996205957660834</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9988807885009692</v>
+        <v>0.9997906592286928</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9991356554021842</v>
+        <v>0.9998195145637883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.99918711363207</v>
+        <v>0.9998258951251464</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004785814602554365</v>
+        <v>0.0004765249156880062</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0003700108900614543</v>
+        <v>0.000354157198439978</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001079189665194901</v>
+        <v>0.0003238494516516275</v>
       </c>
       <c r="J6" t="n">
-        <v>9.382369518305717e-05</v>
+        <v>0.0001021668218184221</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0005865066801889791</v>
+        <v>0.0002130081367350248</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002119175288990837</v>
+        <v>0.002329651535163123</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02187650475408347</v>
+        <v>0.02182945065016539</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000492190472962</v>
+        <v>1.000490075448191</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02280783285207262</v>
+        <v>0.02275877555753533</v>
       </c>
       <c r="P6" t="n">
-        <v>113.2893682413848</v>
+        <v>113.2979810945601</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.0142836599266</v>
+        <v>173.0228965131019</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994780865493063</v>
+        <v>0.9994780840917066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996029656066158</v>
+        <v>0.9996190406812296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9988644261840764</v>
+        <v>0.9997841616140453</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991259500601365</v>
+        <v>0.9998110726814694</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9991754512104646</v>
+        <v>0.9998198354908979</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0004871832968699021</v>
+        <v>0.0004871855909313358</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0003706141784285038</v>
+        <v>0.000355608801890735</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001094966882731133</v>
+        <v>0.0003339012391151851</v>
       </c>
       <c r="J7" t="n">
-        <v>9.487719983413202e-05</v>
+        <v>0.0001069454915259751</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000594921248877353</v>
+        <v>0.0002204217798144777</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002139612859445872</v>
+        <v>0.002357395096342873</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02207222908702023</v>
+        <v>0.02207228105410349</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000501036912666</v>
+        <v>1.000501039271962</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02301188957506773</v>
+        <v>0.0230119437544973</v>
       </c>
       <c r="P7" t="n">
-        <v>113.2537402521701</v>
+        <v>113.2537308345401</v>
       </c>
       <c r="Q7" t="n">
-        <v>172.978655670712</v>
+        <v>172.9786462530819</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994686961209158</v>
+        <v>0.9994663847319186</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996022179348215</v>
+        <v>0.9996173158698486</v>
       </c>
       <c r="D8" t="n">
-        <v>0.998847774207214</v>
+        <v>0.9997774776616761</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9991162170714037</v>
+        <v>0.9998022753962071</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9991635806640028</v>
+        <v>0.9998135732375147</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0004959488495801137</v>
+        <v>0.0004981064297507838</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000371312097229487</v>
+        <v>0.0003572188376043957</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001111023402299235</v>
+        <v>0.0003442412903918548</v>
       </c>
       <c r="J8" t="n">
-        <v>9.593370550373404e-05</v>
+        <v>0.0001119253430571934</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0006034859819963156</v>
+        <v>0.0002280833167245241</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002160238020719748</v>
+        <v>0.002385470155665942</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02226990906088558</v>
+        <v>0.02231829809261414</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000510051723921</v>
+        <v>1.000512270657358</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02321798519467448</v>
+        <v>0.02326843424766283</v>
       </c>
       <c r="P8" t="n">
-        <v>113.2180755248075</v>
+        <v>113.2093935788286</v>
       </c>
       <c r="Q8" t="n">
-        <v>172.9429909433493</v>
+        <v>172.9343089973704</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994591186005498</v>
+        <v>0.9994544325554802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999601365446701</v>
+        <v>0.9996154069033272</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9988308117305291</v>
+        <v>0.9997706100842395</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99910624437856</v>
+        <v>0.9997931452994642</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9991515024137136</v>
+        <v>0.9998071191941441</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0005048890444372816</v>
+        <v>0.0005092632618162021</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003721078574701036</v>
+        <v>0.0003590007740582661</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001127379318540582</v>
+        <v>0.0003548654090150037</v>
       </c>
       <c r="J9" t="n">
-        <v>9.701623080196488e-05</v>
+        <v>0.0001170935881339081</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006122005757686418</v>
+        <v>0.0002359794985744559</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002181087894212387</v>
+        <v>0.002413814842949334</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02246973618975714</v>
+        <v>0.02256686202856308</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000519246143472</v>
+        <v>1.000523744746739</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02342631937812129</v>
+        <v>0.0235275800649634</v>
       </c>
       <c r="P9" t="n">
-        <v>113.1823437336303</v>
+        <v>113.1650909226768</v>
       </c>
       <c r="Q9" t="n">
-        <v>172.9072591521721</v>
+        <v>172.8900063412187</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994493496540241</v>
+        <v>0.9994422129825471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996004138780209</v>
+        <v>0.9996133114859189</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9988135115579395</v>
+        <v>0.9997635641571283</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9990961043053267</v>
+        <v>0.9997836910417782</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9991391833903217</v>
+        <v>0.9998004774013297</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0005140079272118897</v>
+        <v>0.0005206696967719901</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00037299610506386</v>
+        <v>0.0003609567542306718</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001144060855033819</v>
+        <v>0.0003657654339698605</v>
       </c>
       <c r="J10" t="n">
-        <v>9.811692506507965e-05</v>
+        <v>0.0001224453299736055</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0006210888900494493</v>
+        <v>0.0002441053819717329</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002202132489651861</v>
+        <v>0.002442490214499325</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0226717429239988</v>
+        <v>0.02281818785030902</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000528624332137</v>
+        <v>1.000535475536755</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0236369259572512</v>
+        <v>0.02378960534725724</v>
       </c>
       <c r="P10" t="n">
-        <v>113.1465437400736</v>
+        <v>113.1207893931703</v>
       </c>
       <c r="Q10" t="n">
-        <v>172.8714591586154</v>
+        <v>172.8457048117122</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994393805821407</v>
+        <v>0.9994296940846041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9995993487484192</v>
+        <v>0.9996110167003918</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9987958783954262</v>
+        <v>0.9997562737769247</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9990857804115805</v>
+        <v>0.9997738240732281</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9991266241501228</v>
+        <v>0.9997935855813848</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0005233136182233106</v>
+        <v>0.0005323555384856332</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0003739903567932856</v>
+        <v>0.0003630988357908514</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001161063474079117</v>
+        <v>0.000377043627016232</v>
       </c>
       <c r="J11" t="n">
-        <v>9.923757285115371e-05</v>
+        <v>0.0001280306937509017</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0006301505234651355</v>
+        <v>0.0002525371603835669</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002223407400149576</v>
+        <v>0.002471521802425473</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02287604900815066</v>
+        <v>0.02307283117620448</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000538194641145</v>
+        <v>1.00054749367878</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0238499297743773</v>
+        <v>0.02405508936672042</v>
       </c>
       <c r="P11" t="n">
-        <v>113.1106592423688</v>
+        <v>113.0763979728303</v>
       </c>
       <c r="Q11" t="n">
-        <v>172.8355746609106</v>
+        <v>172.8013133913721</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9994292221321456</v>
+        <v>0.9994168783060684</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999598172756094</v>
+        <v>0.999608525159501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9987779336251118</v>
+        <v>0.9997487683432328</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9990754706750307</v>
+        <v>0.9997635849048702</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9991138683429733</v>
+        <v>0.9997864735702836</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0005327960853893499</v>
+        <v>0.0005443185052009921</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0003750880940088267</v>
+        <v>0.0003654245798462914</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001178366558155988</v>
+        <v>0.0003886545070677192</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001003566838884827</v>
+        <v>0.0001338267474999056</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0006393539821520072</v>
+        <v>0.0002612383310679929</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002244874420266938</v>
+        <v>0.002500893772067933</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02308237607763442</v>
+        <v>0.02333063447917763</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00054794675314</v>
+        <v>1.000559796826174</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02406504061436491</v>
+        <v>0.02432386789002754</v>
       </c>
       <c r="P12" t="n">
-        <v>113.0747435720146</v>
+        <v>113.0319519898749</v>
       </c>
       <c r="Q12" t="n">
-        <v>172.7996589905564</v>
+        <v>172.7568674084167</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9994188629187979</v>
+        <v>0.9994037691678009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.99959688375862</v>
+        <v>0.9996057917641765</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9987596667079983</v>
+        <v>0.9997410646092709</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990647291664162</v>
+        <v>0.9997528722446307</v>
       </c>
       <c r="F13" t="n">
-        <v>0.99910084362038</v>
+        <v>0.9997791209007004</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0005424659563324872</v>
+        <v>0.000556555310349054</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0003762913165702774</v>
+        <v>0.0003679760843995191</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001195980269399085</v>
+        <v>0.0004005721569532705</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001015226633283874</v>
+        <v>0.0001398908293053906</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0006487514663637363</v>
+        <v>0.0002702339347193266</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002266581443452488</v>
+        <v>0.002530615209935708</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02329089857288652</v>
+        <v>0.0235914245086865</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000557891597954</v>
+        <v>1.000572381598911</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02428244034394095</v>
+        <v>0.02459576029100239</v>
       </c>
       <c r="P13" t="n">
-        <v>113.0387704556458</v>
+        <v>112.9874880050433</v>
       </c>
       <c r="Q13" t="n">
-        <v>172.7636858741876</v>
+        <v>172.7124034235851</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9994083017547163</v>
+        <v>0.9993903812488574</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9995954738888206</v>
+        <v>0.9996028770028728</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9987410518819511</v>
+        <v>0.9997331479242899</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990539240410279</v>
+        <v>0.9997419009984689</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9990875926975359</v>
+        <v>0.9997715777212801</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000552324339421132</v>
+        <v>0.0005690523450211204</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0003776073681418804</v>
+        <v>0.0003706968861333631</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001213929448715889</v>
+        <v>0.0004128192413314978</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001026955483020531</v>
+        <v>0.000146101288028597</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0006583121566070049</v>
+        <v>0.0002794626171140082</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002288481505860469</v>
+        <v>0.002560614657381827</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02350158163658634</v>
+        <v>0.02385481806724001</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000568030315472</v>
+        <v>1.000585234001097</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02450209262183654</v>
+        <v>0.02487036705864336</v>
       </c>
       <c r="P14" t="n">
-        <v>113.0027502256492</v>
+        <v>112.943076266609</v>
       </c>
       <c r="Q14" t="n">
-        <v>172.727665644191</v>
+        <v>172.6679916851508</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9993975258392699</v>
+        <v>0.9993766782765371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9995939459301564</v>
+        <v>0.9995997199828115</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9987220758275359</v>
+        <v>0.9997249717675919</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9990430025248744</v>
+        <v>0.9997304607568317</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9990740902073807</v>
+        <v>0.999763763848511</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0005623831834823589</v>
+        <v>0.0005818434681911253</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0003790336504853211</v>
+        <v>0.000373643825783347</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001232226939251681</v>
+        <v>0.0004254677275616072</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000103881067370614</v>
+        <v>0.0001525772295419259</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0006680543555017721</v>
+        <v>0.0002890224785517666</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002310612157421389</v>
+        <v>0.002591005133945666</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02371461961496239</v>
+        <v>0.02412143171934712</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000578375194301</v>
+        <v>1.000598388854524</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02472420006800147</v>
+        <v>0.02514833100588701</v>
       </c>
       <c r="P15" t="n">
-        <v>112.9666542385241</v>
+        <v>112.8986182028116</v>
       </c>
       <c r="Q15" t="n">
-        <v>172.6915696570659</v>
+        <v>172.6235336213534</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9993865335520991</v>
+        <v>0.9993626132525316</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9995922904542518</v>
+        <v>0.9995963122508931</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9987027387650924</v>
+        <v>0.999716527055708</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9990318200510895</v>
+        <v>0.9997184423086224</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9990603307346371</v>
+        <v>0.9997556445018592</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0005726440010506721</v>
+        <v>0.0005949725507170526</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0003805789645752867</v>
+        <v>0.0003768247939470565</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001250872528545858</v>
+        <v>0.0004385316677385093</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000105094913115059</v>
+        <v>0.0001593804746263901</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0006779819702316555</v>
+        <v>0.0002989560711824497</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002332971072900788</v>
+        <v>0.002621816717638628</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02392998121709819</v>
+        <v>0.02439205917336731</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000588927789985</v>
+        <v>1.00061189127757</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02494873005940017</v>
+        <v>0.02543047963090091</v>
       </c>
       <c r="P16" t="n">
-        <v>112.9304926478896</v>
+        <v>112.8539905734629</v>
       </c>
       <c r="Q16" t="n">
-        <v>172.6554080664314</v>
+        <v>172.5789059920048</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999375329292828</v>
+        <v>0.9993482368125129</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9995905035389758</v>
+        <v>0.9995926480044036</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9986830590994524</v>
+        <v>0.9997078231072303</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9990204438956694</v>
+        <v>0.9997060162682921</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9990463224211684</v>
+        <v>0.9997472669657</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0005831026852700509</v>
+        <v>0.0006083923264217678</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003822469715488907</v>
+        <v>0.0003802452072032048</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001269848469904146</v>
+        <v>0.0004519966460326326</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001063297827968918</v>
+        <v>0.000166414444097717</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0006880891263505188</v>
+        <v>0.0003092055450651748</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0023555572933392</v>
+        <v>0.002652978242988289</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02414751923635327</v>
+        <v>0.02466561019763687</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000599683878885</v>
+        <v>1.000625692659987</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02517552912250071</v>
+        <v>0.0257156762886023</v>
       </c>
       <c r="P17" t="n">
-        <v>112.8942945091692</v>
+        <v>112.8093812207553</v>
       </c>
       <c r="Q17" t="n">
-        <v>172.6192099277111</v>
+        <v>172.5342966392972</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9993639020025472</v>
+        <v>0.9993334993189086</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9995885881349438</v>
+        <v>0.9995886954009021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9986630222112753</v>
+        <v>0.9996988585312709</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9990089284845314</v>
+        <v>0.9996929452315979</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9990320633084447</v>
+        <v>0.9997385748553443</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0005937695591471133</v>
+        <v>0.0006221491298001538</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0003840349171362044</v>
+        <v>0.0003839347890726132</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001289168859894923</v>
+        <v>0.0004658648141424061</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001075797685401238</v>
+        <v>0.0001738135246271438</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0006983772369598082</v>
+        <v>0.0003198398838953514</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002378360595848258</v>
+        <v>0.002684531149108337</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02436738720394768</v>
+        <v>0.02494291742760164</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000610654077555</v>
+        <v>1.000639840653848</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02540475732466506</v>
+        <v>0.02600478906145178</v>
       </c>
       <c r="P18" t="n">
-        <v>112.8580385228731</v>
+        <v>112.7646614708829</v>
       </c>
       <c r="Q18" t="n">
-        <v>172.5829539414149</v>
+        <v>172.4895768894247</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9993522482951037</v>
+        <v>0.999318428477726</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9995865363357355</v>
+        <v>0.9995845287072248</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9986425655075218</v>
+        <v>0.9996896710259905</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9989971560124735</v>
+        <v>0.9996794956980111</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9990175124358088</v>
+        <v>0.9997296554089202</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0006046477835070121</v>
+        <v>0.0006362170985106727</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0003859501816336387</v>
+        <v>0.0003878242147236165</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001308894053295621</v>
+        <v>0.0004800778531435946</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001088576579753112</v>
+        <v>0.0001814268596992154</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0007088758556354662</v>
+        <v>0.000330752356421405</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002401387831851986</v>
+        <v>0.002716402680295682</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0245895868917518</v>
+        <v>0.02522334431653885</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000621841636701</v>
+        <v>1.000654308661383</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02563641651319577</v>
+        <v>0.02629715430361473</v>
       </c>
       <c r="P19" t="n">
-        <v>112.8217288909703</v>
+        <v>112.7199414060224</v>
       </c>
       <c r="Q19" t="n">
-        <v>172.5466443095121</v>
+        <v>172.4448568245643</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9993403552961541</v>
+        <v>0.9993029905659128</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9995843473784849</v>
+        <v>0.999580071504279</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9986217184964754</v>
+        <v>0.9996801632138801</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9989852084478262</v>
+        <v>0.9996654652384263</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9990026835343144</v>
+        <v>0.9997204021862465</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0006157493759841536</v>
+        <v>0.0006506277115422907</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000387993477142914</v>
+        <v>0.0003919848180249843</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001328995597008285</v>
+        <v>0.0004947864057066546</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001101545535265598</v>
+        <v>0.0001893690377193596</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0007195750752674221</v>
+        <v>0.0003420731865946419</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002424665731097725</v>
+        <v>0.002748699931222467</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02481429781364271</v>
+        <v>0.02550740503348568</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000633258915692</v>
+        <v>1.000669129056724</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02587069384424731</v>
+        <v>0.02659330807336873</v>
       </c>
       <c r="P20" t="n">
-        <v>112.7853410687763</v>
+        <v>112.675145902015</v>
       </c>
       <c r="Q20" t="n">
-        <v>172.5102564873182</v>
+        <v>172.4000613205568</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9993282349977698</v>
+        <v>0.9992871997175187</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9995820146972414</v>
+        <v>0.9995753404854546</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9986004987959354</v>
+        <v>0.9996703876010686</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9989731620038284</v>
+        <v>0.9996510156016095</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9989875981602128</v>
+        <v>0.9997108735900528</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0006270631425062101</v>
+        <v>0.0006653677753800211</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0003901709326908883</v>
+        <v>0.0003964010164297819</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001349456503227667</v>
+        <v>0.0005099092450311185</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001114621823270952</v>
+        <v>0.0001975484980734802</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0007304593427773813</v>
+        <v>0.0003537309217533509</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002448159573888805</v>
+        <v>0.002781379126049136</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02504122885375656</v>
+        <v>0.02579472378956637</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000644894402141</v>
+        <v>1.000684288271182</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02610728580855081</v>
+        <v>0.02689285858372759</v>
       </c>
       <c r="P21" t="n">
-        <v>112.7489266333006</v>
+        <v>112.6303412489952</v>
       </c>
       <c r="Q21" t="n">
-        <v>172.4738420518424</v>
+        <v>172.355256667537</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9993158668818525</v>
+        <v>0.9992711005502987</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9995795352700905</v>
+        <v>0.9995703943659571</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9985788578664431</v>
+        <v>0.9996604137426304</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9989608508481468</v>
+        <v>0.9996361736059508</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9989722114045291</v>
+        <v>0.9997011359470134</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0006386082358175022</v>
+        <v>0.000680395641308158</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0003924853691019936</v>
+        <v>0.0004010180018711718</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001370323575692144</v>
+        <v>0.0005253387696569755</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001127985453019356</v>
+        <v>0.0002059500597602406</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0007415610604970401</v>
+        <v>0.000365644414708608</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002471903834186688</v>
+        <v>0.002814303792093019</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02527069915569219</v>
+        <v>0.02608439459347596</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000656767793422</v>
+        <v>1.000699743471713</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02634652513630886</v>
+        <v>0.02719486127346084</v>
       </c>
       <c r="P22" t="n">
-        <v>112.7124387621809</v>
+        <v>112.5856722070715</v>
       </c>
       <c r="Q22" t="n">
-        <v>172.4373541807227</v>
+        <v>172.3105876256133</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9993032522874495</v>
+        <v>0.9992545923975904</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9995769053878177</v>
+        <v>0.9995651053588467</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9985568028539152</v>
+        <v>0.9996500905623144</v>
       </c>
       <c r="E23" t="n">
-        <v>0.998948267707824</v>
+        <v>0.9996206432008264</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9989565274951353</v>
+        <v>0.9996910165196792</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0006503834059759314</v>
+        <v>0.0006958052772371565</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0003949402487650643</v>
+        <v>0.0004059550578481318</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001391589924015375</v>
+        <v>0.0005413086940237024</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001141644319229362</v>
+        <v>0.0002147413072227289</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0007528771779691556</v>
+        <v>0.0003780250006232157</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002495896706187258</v>
+        <v>0.002847688035344407</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02550261566929815</v>
+        <v>0.02637812118474621</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000668877804048</v>
+        <v>1.000715591298313</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02658831481603238</v>
+        <v>0.02750109241381933</v>
       </c>
       <c r="P23" t="n">
-        <v>112.6758970272466</v>
+        <v>112.5408814217169</v>
       </c>
       <c r="Q23" t="n">
-        <v>172.4008124457884</v>
+        <v>172.2657968402588</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9992903929346035</v>
+        <v>0.9992377190550316</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9995741165919761</v>
+        <v>0.9995595983315614</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9985343621122525</v>
+        <v>0.9996395218887771</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9989354761763617</v>
+        <v>0.9996046929011031</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9989405692240578</v>
+        <v>0.9996806440789611</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0006623870473973148</v>
+        <v>0.0007115558018617055</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0003975434672691901</v>
+        <v>0.0004110956260884686</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001413228208202656</v>
+        <v>0.0005576583955573154</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001155529391825062</v>
+        <v>0.0002237702430969582</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0007643912504895452</v>
+        <v>0.0003907151350758423</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002520121336548884</v>
+        <v>0.002881386311660754</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02573688107361331</v>
+        <v>0.0266750033151208</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000681222782781</v>
+        <v>1.00073178970717</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02683255338360548</v>
+        <v>0.0278106134311147</v>
       </c>
       <c r="P24" t="n">
-        <v>112.6393210182687</v>
+        <v>112.4961134300645</v>
       </c>
       <c r="Q24" t="n">
-        <v>172.3642364368105</v>
+        <v>172.2210288486064</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9992772778945672</v>
+        <v>0.9992204340656052</v>
       </c>
       <c r="C25" t="n">
-        <v>0.999571168672134</v>
+        <v>0.9995537273441001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9985114756387877</v>
+        <v>0.999628607445717</v>
       </c>
       <c r="E25" t="n">
-        <v>0.998922436063688</v>
+        <v>0.9995879521064208</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9989243061352358</v>
+        <v>0.9996698714925788</v>
       </c>
       <c r="G25" t="n">
-        <v>0.000674629361587529</v>
+        <v>0.0007276905807678089</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0004002952210431156</v>
+        <v>0.0004165759351770185</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001435296285288548</v>
+        <v>0.0005745430013511938</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001169684296706031</v>
+        <v>0.0002332466519601919</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0007761252524497051</v>
+        <v>0.0004038948266556928</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002544581943357493</v>
+        <v>0.002915499997925522</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02597362819452702</v>
+        <v>0.02697574059720713</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000693813221216</v>
+        <v>1.000748383297019</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02707937931959059</v>
+        <v>0.02812415372191144</v>
       </c>
       <c r="P25" t="n">
-        <v>112.6026942236869</v>
+        <v>112.4512692530695</v>
       </c>
       <c r="Q25" t="n">
-        <v>172.3276096422287</v>
+        <v>172.1761846716113</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9992638994438606</v>
+        <v>0.999202687978095</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9995680578065893</v>
+        <v>0.9995474728651859</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9984881699533811</v>
+        <v>0.9996172993148321</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9989093343934463</v>
+        <v>0.9995704111987297</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9989077376616621</v>
+        <v>0.9996586570823197</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0006871175580760049</v>
+        <v>0.0007442557744954738</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0004031990774778702</v>
+        <v>0.0004224142167035226</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001457768583735127</v>
+        <v>0.0005920366408529829</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001183906021678396</v>
+        <v>0.0002431759782716212</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0007880795929514833</v>
+        <v>0.0004176150664587266</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002569296929481749</v>
+        <v>0.002950132753258091</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02621292730841035</v>
+        <v>0.0272810515650602</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000706656533894</v>
+        <v>1.000765419541029</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02732886589216938</v>
+        <v>0.02844246240974685</v>
       </c>
       <c r="P26" t="n">
-        <v>112.5660103247328</v>
+        <v>112.4062515985739</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.2909257432746</v>
+        <v>172.1311670171158</v>
       </c>
     </row>
   </sheetData>
